--- a/data-raw/generators/1990-2000/fuels.xlsx
+++ b/data-raw/generators/1990-2000/fuels.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fuels!$A$1:$F$75</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1360,7 @@
         <v>33397</v>
       </c>
       <c r="C2" s="5">
-        <f>B2/SUM($B$2:$B$74)</f>
+        <f t="shared" ref="C2:C33" si="0">B2/SUM($B$2:$B$74)</f>
         <v>0.33660222943417523</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1381,7 +1381,7 @@
         <v>24118</v>
       </c>
       <c r="C3" s="5">
-        <f>B3/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>0.24308089257997539</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1402,7 +1402,7 @@
         <v>20217</v>
       </c>
       <c r="C4" s="5">
-        <f>B4/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>0.20376343002277814</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1423,7 +1423,7 @@
         <v>9281</v>
       </c>
       <c r="C5" s="5">
-        <f>B5/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>9.3541494486887464E-2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1444,7 +1444,7 @@
         <v>2833</v>
       </c>
       <c r="C6" s="5">
-        <f>B6/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>2.8553286702009715E-2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1465,7 +1465,7 @@
         <v>2192</v>
       </c>
       <c r="C7" s="5">
-        <f>B7/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>2.2092765425628415E-2</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1486,7 +1486,7 @@
         <v>1897</v>
       </c>
       <c r="C8" s="5">
-        <f>B8/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.9119514604204881E-2</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1507,7 +1507,7 @@
         <v>1748</v>
       </c>
       <c r="C9" s="5">
-        <f>B9/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.7617770968977403E-2</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1528,7 +1528,7 @@
         <v>947</v>
       </c>
       <c r="C10" s="5">
-        <f>B10/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>9.5446390775867276E-3</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1549,7 +1549,7 @@
         <v>337</v>
       </c>
       <c r="C11" s="5">
-        <f>B11/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>3.3965611078634926E-3</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1570,7 +1570,7 @@
         <v>334</v>
       </c>
       <c r="C12" s="5">
-        <f>B12/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>3.3663246588320666E-3</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1591,7 +1591,7 @@
         <v>310</v>
       </c>
       <c r="C13" s="5">
-        <f>B13/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>3.1244330665806609E-3</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1612,7 +1612,7 @@
         <v>282</v>
       </c>
       <c r="C14" s="5">
-        <f>B14/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>2.8422262089540205E-3</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1633,7 +1633,7 @@
         <v>237</v>
       </c>
       <c r="C15" s="5">
-        <f>B15/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>2.3886794734826341E-3</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1654,7 +1654,7 @@
         <v>217</v>
       </c>
       <c r="C16" s="5">
-        <f>B16/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>2.1871031466064624E-3</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1675,7 +1675,7 @@
         <v>115</v>
       </c>
       <c r="C17" s="5">
-        <f>B17/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.159063879537987E-3</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1696,7 +1696,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="5">
-        <f>B18/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.1489850631941786E-3</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1717,7 +1717,7 @@
         <v>113</v>
       </c>
       <c r="C19" s="5">
-        <f>B19/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.1389062468503699E-3</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1738,7 +1738,7 @@
         <v>101</v>
       </c>
       <c r="C20" s="5">
-        <f>B20/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.0179604507246668E-3</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1759,7 +1759,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="5">
-        <f>B21/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>9.070934709427725E-4</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1780,7 +1780,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="5">
-        <f>B22/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>8.9701465459896392E-4</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1801,7 +1801,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="5">
-        <f>B23/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>4.2331028643996049E-4</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1822,7 +1822,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="5">
-        <f>B24/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>3.6283738837710898E-4</v>
       </c>
       <c r="D24" s="1">
@@ -1843,7 +1843,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="5">
-        <f>B25/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>3.3260093934568322E-4</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1864,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5">
-        <f>B26/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>2.1165514321998025E-4</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="5">
-        <f>B27/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.713398778447459E-4</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="5">
-        <f>B28/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.6126106150093732E-4</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1927,7 +1927,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="5">
-        <f>B29/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.4110342881332017E-4</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1948,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="5">
-        <f>B30/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>1.1086697978189442E-4</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1969,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="5">
-        <f>B31/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>9.0709347094277245E-5</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1988,7 +1988,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="5">
-        <f>B32/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>9.0709347094277245E-5</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2009,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="5">
-        <f>B33/SUM($B$2:$B$74)</f>
+        <f t="shared" si="0"/>
         <v>8.0630530750468659E-5</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2030,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="5">
-        <f>B34/SUM($B$2:$B$74)</f>
+        <f t="shared" ref="C34:C65" si="1">B34/SUM($B$2:$B$74)</f>
         <v>8.0630530750468659E-5</v>
       </c>
       <c r="D34" s="1">
@@ -2051,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="5">
-        <f>B35/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>5.0394081719042915E-5</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2072,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="5">
-        <f>B36/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>4.0315265375234329E-5</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2093,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="5">
-        <f>B37/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>4.0315265375234329E-5</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2114,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="5">
-        <f>B38/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>4.0315265375234329E-5</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="5">
-        <f>B39/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>4.0315265375234329E-5</v>
       </c>
       <c r="D39" s="1"/>
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="5">
-        <f>B40/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>2.0157632687617165E-5</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="5">
-        <f>B41/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>1.0078816343808582E-5</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="5">
-        <f>B42/SUM($B$2:$B$74)</f>
+        <f t="shared" si="1"/>
         <v>1.0078816343808582E-5</v>
       </c>
       <c r="D42" s="1"/>
@@ -2202,10 +2202,7 @@
     <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="5">
-        <f>B43/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="1" t="s">
         <v>154</v>
       </c>
@@ -2219,10 +2216,7 @@
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="5">
-        <f>B44/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="1">
         <v>97</v>
       </c>
@@ -2236,10 +2230,7 @@
     <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="5">
-        <f>B45/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="1" t="s">
         <v>154</v>
       </c>
@@ -2253,10 +2244,7 @@
     <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="5">
-        <f>B46/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="1" t="s">
         <v>154</v>
       </c>
@@ -2270,10 +2258,7 @@
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="5">
-        <f>B47/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="1" t="s">
         <v>112</v>
       </c>
@@ -2287,10 +2272,7 @@
     <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="5">
-        <f>B48/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="1" t="s">
         <v>112</v>
       </c>
@@ -2304,10 +2286,7 @@
     <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="5">
-        <f>B49/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="1" t="s">
         <v>112</v>
       </c>
@@ -2321,10 +2300,7 @@
     <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="5">
-        <f>B50/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="1" t="s">
         <v>112</v>
       </c>
@@ -2338,10 +2314,7 @@
     <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="5">
-        <f>B51/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="1" t="s">
         <v>112</v>
       </c>
@@ -2355,10 +2328,7 @@
     <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="5">
-        <f>B52/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="1" t="s">
         <v>112</v>
       </c>
@@ -2372,10 +2342,7 @@
     <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="5">
-        <f>B53/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="1" t="s">
         <v>112</v>
       </c>
@@ -2389,10 +2356,7 @@
     <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="5">
-        <f>B54/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="1" t="s">
         <v>112</v>
       </c>
@@ -2406,10 +2370,7 @@
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="5">
-        <f>B55/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C55" s="5"/>
       <c r="D55" s="1" t="s">
         <v>155</v>
       </c>
@@ -2423,10 +2384,7 @@
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="5">
-        <f>B56/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="1" t="s">
         <v>154</v>
       </c>
@@ -2440,10 +2398,7 @@
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="5">
-        <f>B57/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="1" t="s">
         <v>154</v>
       </c>
@@ -2457,10 +2412,7 @@
     <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="5">
-        <f>B58/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="1" t="s">
         <v>112</v>
       </c>
@@ -2474,10 +2426,7 @@
     <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="5">
-        <f>B59/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="1" t="s">
         <v>154</v>
       </c>
@@ -2489,10 +2438,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="5">
-        <f>B60/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="1" t="s">
         <v>112</v>
       </c>
@@ -2506,10 +2452,7 @@
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="5">
-        <f>B61/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C61" s="5"/>
       <c r="D61" s="1">
         <v>97</v>
       </c>
@@ -2523,10 +2466,7 @@
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="5">
-        <f>B62/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="1" t="s">
         <v>154</v>
       </c>
@@ -2540,10 +2480,7 @@
     <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="5">
-        <f>B63/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
         <v>112</v>
       </c>
@@ -2557,10 +2494,7 @@
     <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="5">
-        <f>B64/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C64" s="5"/>
       <c r="D64" s="1" t="s">
         <v>154</v>
       </c>
@@ -2574,10 +2508,7 @@
     <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="5">
-        <f>B65/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="1" t="s">
         <v>154</v>
       </c>
@@ -2589,10 +2520,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="5">
-        <f>B66/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C66" s="5"/>
       <c r="D66" s="1" t="s">
         <v>112</v>
       </c>
@@ -2604,10 +2532,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="5">
-        <f>B67/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C67" s="5"/>
       <c r="D67" s="1" t="s">
         <v>154</v>
       </c>
@@ -2619,10 +2544,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="5">
-        <f>B68/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="1" t="s">
         <v>154</v>
       </c>
@@ -2634,10 +2556,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="5">
-        <f>B69/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C69" s="5"/>
       <c r="D69" s="1">
         <v>97</v>
       </c>
@@ -2649,10 +2568,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="5">
-        <f>B70/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C70" s="5"/>
       <c r="D70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2664,10 +2580,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="5">
-        <f>B71/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C71" s="5"/>
       <c r="D71" s="1" t="s">
         <v>154</v>
       </c>
@@ -2681,10 +2594,7 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="5">
-        <f>B72/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C72" s="5"/>
       <c r="D72" s="1" t="s">
         <v>154</v>
       </c>
@@ -2696,10 +2606,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="5">
-        <f>B73/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C73" s="5"/>
       <c r="D73" s="1" t="s">
         <v>154</v>
       </c>
@@ -2711,10 +2618,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="5">
-        <f>B74/SUM($B$2:$B$74)</f>
-        <v>0</v>
-      </c>
+      <c r="C74" s="5"/>
       <c r="D74" s="1" t="s">
         <v>154</v>
       </c>
